--- a/Traking_winners/Winners_Tracking.xlsx
+++ b/Traking_winners/Winners_Tracking.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25329"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/oussama_samia_etu_unice_fr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking_winners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01AE283C-967B-4F0D-8C09-9398F61759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{01AE283C-967B-4F0D-8C09-9398F61759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415B6EFB-DED0-4A84-9C5D-9BC27EE3F992}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="History" sheetId="3" r:id="rId2"/>
-    <sheet name="Table Dynamique History" sheetId="4" r:id="rId3"/>
+    <sheet name="Table Dynamique" sheetId="6" r:id="rId2"/>
+    <sheet name="History" sheetId="3" r:id="rId3"/>
+    <sheet name="Table Dynamique History" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_HistoryC4F431" hidden="1">History!$C$4:$F$43</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Plage" name="Plage" connection="WorksheetConnection_History!$C$4:$F$43"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,8 +72,31 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{46C8EC51-061D-4B1B-AB61-4E7FE65504C5}" keepAlive="1" name="ThisWorkbookDataModel" description="Modèle de données" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{497B758E-F638-451C-98A8-FEC76D8AC7B1}" name="WorksheetConnection_History!$C$4:$F$43" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Plage" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HistoryC4F431"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
   <si>
     <t>Project information</t>
   </si>
@@ -398,13 +434,112 @@
   </si>
   <si>
     <t>Total Résultat</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Création du traking</t>
+  </si>
+  <si>
+    <t>Ajout de la dépendance de sprintboot dans le module partie</t>
+  </si>
+  <si>
+    <t>Création du traking et mise à jour des traking précédent</t>
+  </si>
+  <si>
+    <t>Mise à jour des différent module afin d'intégrer la classe commune</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t>Mise à jour des itération</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Total ABS</t>
+  </si>
+  <si>
+    <t>Total APFJ</t>
+  </si>
+  <si>
+    <t>Total APLP</t>
+  </si>
+  <si>
+    <t>Total APM</t>
+  </si>
+  <si>
+    <t>Total CC</t>
+  </si>
+  <si>
+    <t>Total CP</t>
+  </si>
+  <si>
+    <t>Total CT</t>
+  </si>
+  <si>
+    <t>Total EDL1</t>
+  </si>
+  <si>
+    <t>Total Id</t>
+  </si>
+  <si>
+    <t>Total IJ</t>
+  </si>
+  <si>
+    <t>Total IO</t>
+  </si>
+  <si>
+    <t>Total ISB</t>
+  </si>
+  <si>
+    <t>Total IT</t>
+  </si>
+  <si>
+    <t>Total M</t>
+  </si>
+  <si>
+    <t>Total MPI</t>
+  </si>
+  <si>
+    <t>Total MPPM1</t>
+  </si>
+  <si>
+    <t>Total MPPM2</t>
+  </si>
+  <si>
+    <t>Total TU</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,7 +760,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +823,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,8 +848,360 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44714.670950925924" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{11B56438-AA01-40C3-BD5C-086DF59EB771}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Plage].[Who].[Who]" caption="Who" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="6">
+        <s v="BL"/>
+        <s v="DFB"/>
+        <s v="DK"/>
+        <s v="MC"/>
+        <s v="OSF"/>
+        <s v="OSM"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Plage].[What].[What]" caption="What" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="18">
+        <s v="ABS"/>
+        <s v="APFJ"/>
+        <s v="APLP"/>
+        <s v="APM"/>
+        <s v="CC"/>
+        <s v="CP"/>
+        <s v="CT"/>
+        <s v="EDL1"/>
+        <s v="Id"/>
+        <s v="IJ"/>
+        <s v="IO"/>
+        <s v="ISB"/>
+        <s v="IT"/>
+        <s v="M"/>
+        <s v="MPI"/>
+        <s v="MPPM1"/>
+        <s v="MPPM2"/>
+        <s v="TU"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Plage].[Workload].[Workload]" caption="Workload" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="7">
+        <s v="1"/>
+        <s v="0.4"/>
+        <s v="0,5"/>
+        <s v="0.2"/>
+        <s v="0,8"/>
+        <s v="0,2"/>
+        <s v="0.3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="6">
+    <cacheHierarchy uniqueName="[Plage].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Plage].[Date].[All]" allUniqueName="[Plage].[Date].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Plage].[Who]" caption="Who" attribute="1" defaultMemberUniqueName="[Plage].[Who].[All]" allUniqueName="[Plage].[Who].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Plage].[What]" caption="What" attribute="1" defaultMemberUniqueName="[Plage].[What].[All]" allUniqueName="[Plage].[What].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Plage].[Workload]" caption="Workload" attribute="1" defaultMemberUniqueName="[Plage].[Workload].[All]" allUniqueName="[Plage].[Workload].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Plage]" caption="__XL_Count Plage" measure="1" displayFolder="" measureGroup="Plage" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Plage" uniqueName="[Plage]" caption="Plage"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Plage" caption="Plage"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{885DA155-6088-409F-B7F5-33A7F0375E15}" name="Tableau croisé dynamique2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AR12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="43">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="default">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pivotHierarchies count="6">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="2">
+    <colHierarchyUsage hierarchyUsage="2"/>
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_History!$C$4:$F$43">
+        <x15:activeTabTopLevelEntity name="[Plage]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1006,21 +1497,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5">
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,21 +1520,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1054,7 +1545,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1065,7 +1556,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1076,7 +1567,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1087,7 +1578,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1100,7 +1591,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1113,7 +1604,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1125,21 +1616,21 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="22"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="22"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1148,14 +1639,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="22"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1166,7 +1657,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1177,7 +1668,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1188,7 +1679,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1199,7 +1690,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1210,7 +1701,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1221,7 +1712,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1232,7 +1723,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1243,19 +1734,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="22"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.75">
+    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1295,7 +1786,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1307,19 +1798,19 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="F30">
-        <f>IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
+        <f t="shared" ref="F30:F48" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H30">
-        <f>IF(ISNUMBER(F30),F30-G30,"")</f>
+        <f t="shared" ref="H30:H48" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="I30" s="29" t="str">
-        <f>IF(ISNUMBER(G30), G30/F30,"")</f>
+        <f t="shared" ref="I30:I45" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="18.75" customHeight="1">
+    <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>39</v>
       </c>
@@ -1330,19 +1821,19 @@
         <v>0.2</v>
       </c>
       <c r="F31">
-        <f>IF(ISNUMBER(E31),E31,IF(ISNUMBER(G31),G31,""))</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H31">
-        <f>IF(ISNUMBER(F31),F31-G31,"")</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I31" s="29" t="str">
-        <f>IF(ISNUMBER(G31), G31/F31,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>41</v>
       </c>
@@ -1353,19 +1844,19 @@
         <v>0.2</v>
       </c>
       <c r="F32">
-        <f>IF(ISNUMBER(E32),E32,IF(ISNUMBER(G32),G32,""))</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H32">
-        <f>IF(ISNUMBER(F32),F32-G32,"")</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I32" s="29" t="str">
-        <f>IF(ISNUMBER(G32), G32/F32,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1376,19 +1867,19 @@
         <v>0.2</v>
       </c>
       <c r="F33">
-        <f>IF(ISNUMBER(E33),E33,IF(ISNUMBER(G33),G33,""))</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H33">
-        <f>IF(ISNUMBER(F33),F33-G33,"")</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I33" s="29" t="str">
-        <f>IF(ISNUMBER(G33), G33/F33,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -1399,19 +1890,19 @@
         <v>0.2</v>
       </c>
       <c r="F34">
-        <f>IF(ISNUMBER(E34),E34,IF(ISNUMBER(G34),G34,""))</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H34">
-        <f>IF(ISNUMBER(F34),F34-G34,"")</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I34" s="29" t="str">
-        <f>IF(ISNUMBER(G34), G34/F34,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="47.25">
+    <row r="35" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -1422,19 +1913,19 @@
         <v>0.4</v>
       </c>
       <c r="F35">
-        <f>IF(ISNUMBER(E35),E35,IF(ISNUMBER(G35),G35,""))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H35">
-        <f>IF(ISNUMBER(F35),F35-G35,"")</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I35" s="29" t="str">
-        <f>IF(ISNUMBER(G35), G35/F35,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="47.25">
+    <row r="36" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>49</v>
       </c>
@@ -1445,19 +1936,19 @@
         <v>0.4</v>
       </c>
       <c r="F36">
-        <f>IF(ISNUMBER(E36),E36,IF(ISNUMBER(G36),G36,""))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H36">
-        <f>IF(ISNUMBER(F36),F36-G36,"")</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I36" s="29" t="str">
-        <f>IF(ISNUMBER(G36), G36/F36,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="31.5">
+    <row r="37" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -1468,19 +1959,19 @@
         <v>0.4</v>
       </c>
       <c r="F37">
-        <f>IF(ISNUMBER(E37),E37,IF(ISNUMBER(G37),G37,""))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H37">
-        <f>IF(ISNUMBER(F37),F37-G37,"")</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I37" s="29" t="str">
-        <f>IF(ISNUMBER(G37), G37/F37,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>53</v>
       </c>
@@ -1491,19 +1982,19 @@
         <v>0.2</v>
       </c>
       <c r="F38">
-        <f>IF(ISNUMBER(E38),E38,IF(ISNUMBER(G38),G38,""))</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="H38">
-        <f>IF(ISNUMBER(F38),F38-G38,"")</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="I38" s="29" t="str">
-        <f>IF(ISNUMBER(G38), G38/F38,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>55</v>
       </c>
@@ -1514,19 +2005,19 @@
         <v>0.4</v>
       </c>
       <c r="F39">
-        <f>IF(ISNUMBER(E39),E39,IF(ISNUMBER(G39),G39,""))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="H39">
-        <f>IF(ISNUMBER(F39),F39-G39,"")</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="I39" s="29" t="str">
-        <f>IF(ISNUMBER(G39), G39/F39,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="31.5" customHeight="1">
+    <row r="40" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>57</v>
       </c>
@@ -1537,19 +2028,19 @@
         <v>0.5</v>
       </c>
       <c r="F40">
-        <f>IF(ISNUMBER(E40),E40,IF(ISNUMBER(G40),G40,""))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H40">
-        <f>IF(ISNUMBER(F40),F40-G40,"")</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I40" s="29" t="str">
-        <f>IF(ISNUMBER(G40), G40/F40,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="31.5">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>59</v>
       </c>
@@ -1560,19 +2051,19 @@
         <v>0.5</v>
       </c>
       <c r="F41">
-        <f>IF(ISNUMBER(E41),E41,IF(ISNUMBER(G41),G41,""))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H41">
-        <f>IF(ISNUMBER(F41),F41-G41,"")</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I41" s="29" t="str">
-        <f>IF(ISNUMBER(G41), G41/F41,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>61</v>
       </c>
@@ -1583,19 +2074,19 @@
         <v>0.5</v>
       </c>
       <c r="F42">
-        <f>IF(ISNUMBER(E42),E42,IF(ISNUMBER(G42),G42,""))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H42">
-        <f>IF(ISNUMBER(F42),F42-G42,"")</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I42" s="29" t="str">
-        <f>IF(ISNUMBER(G42), G42/F42,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="31.5">
+    <row r="43" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>63</v>
       </c>
@@ -1606,19 +2097,19 @@
         <v>0.5</v>
       </c>
       <c r="F43">
-        <f>IF(ISNUMBER(E43),E43,IF(ISNUMBER(G43),G43,""))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H43">
-        <f>IF(ISNUMBER(F43),F43-G43,"")</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I43" s="29" t="str">
-        <f>IF(ISNUMBER(G43), G43/F43,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:9">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>65</v>
       </c>
@@ -1629,19 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f>IF(ISNUMBER(E44),E44,IF(ISNUMBER(G44),G44,""))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H44">
-        <f>IF(ISNUMBER(F44),F44-G44,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44" s="29" t="str">
-        <f>IF(ISNUMBER(G44), G44/F44,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:9">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>67</v>
       </c>
@@ -1649,79 +2140,96 @@
         <v>68</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(ISNUMBER(E45),E45,IF(ISNUMBER(G45),G45,""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f>IF(ISNUMBER(F45),F45-G45,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I45" s="29" t="str">
-        <f>IF(ISNUMBER(G45), G45/F45,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F46">
-        <f>IF(ISNUMBER(E46),E46,IF(ISNUMBER(G46),G46,""))</f>
+      <c r="F47">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H46">
-        <f>IF(ISNUMBER(F46),F46-G46,"")</f>
+      <c r="H47">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I46" s="29"/>
-    </row>
-    <row r="47" spans="3:9" ht="63">
-      <c r="C47" t="s">
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="3:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D48" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>0.5</v>
       </c>
-      <c r="F47">
-        <f>IF(ISNUMBER(E47),E47,IF(ISNUMBER(G47),G47,""))</f>
+      <c r="F48">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H47">
-        <f>IF(ISNUMBER(F47),F47-G47,"")</f>
+      <c r="H48">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="3:9">
-      <c r="C48" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D49" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="31.5">
-      <c r="C49" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D51" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
-      <c r="D50" s="28" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D52" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E50">
-        <f>SUM(E30:E47)</f>
+      <c r="E52">
+        <f>SUM(E30:E48)</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -1732,28 +2240,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
-  <dimension ref="B2:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF410C-7F2F-45AF-898B-1403CE31B136}">
+  <dimension ref="A3:AR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="1.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="1.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V5" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
+  <dimension ref="B2:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.5">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1773,7 +2571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C5" s="21">
         <v>44690</v>
       </c>
@@ -1790,7 +2588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6" s="21">
         <v>44690</v>
       </c>
@@ -1807,7 +2605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" s="21">
         <v>44690</v>
       </c>
@@ -1824,7 +2622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C8" s="21">
         <v>44690</v>
       </c>
@@ -1841,7 +2639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C9" s="21">
         <v>44690</v>
       </c>
@@ -1858,7 +2656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C10" s="21">
         <v>44690</v>
       </c>
@@ -1875,7 +2673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C11" s="21">
         <v>44690</v>
       </c>
@@ -1892,7 +2690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C12" s="21">
         <v>44690</v>
       </c>
@@ -1909,7 +2707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" s="21">
         <v>44690</v>
       </c>
@@ -1926,7 +2724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" s="21">
         <v>44690</v>
       </c>
@@ -1943,7 +2741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="21">
         <v>44690</v>
       </c>
@@ -1960,7 +2758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" s="21">
         <v>44697</v>
       </c>
@@ -1977,7 +2775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="31.5">
+    <row r="17" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C17" s="21">
         <v>44697</v>
       </c>
@@ -1994,7 +2792,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="21">
         <v>44697</v>
       </c>
@@ -2011,7 +2809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="21">
         <v>44697</v>
       </c>
@@ -2028,7 +2826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="31.5">
+    <row r="20" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C20" s="21">
         <v>44697</v>
       </c>
@@ -2045,7 +2843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="21">
         <v>44697</v>
       </c>
@@ -2062,7 +2860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="21">
         <v>44697</v>
       </c>
@@ -2079,7 +2877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="21">
         <v>44704</v>
       </c>
@@ -2096,7 +2894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="21">
         <v>44704</v>
       </c>
@@ -2113,7 +2911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="21">
         <v>44704</v>
       </c>
@@ -2130,7 +2928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="21">
         <v>44704</v>
       </c>
@@ -2147,7 +2945,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="21">
         <v>44704</v>
       </c>
@@ -2164,7 +2962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="21">
         <v>44704</v>
       </c>
@@ -2181,7 +2979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="21">
         <v>44704</v>
       </c>
@@ -2198,7 +2996,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30" s="21">
         <v>44704</v>
       </c>
@@ -2215,7 +3013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="21">
         <v>44704</v>
       </c>
@@ -2232,7 +3030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="3:7">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="21">
         <v>44704</v>
       </c>
@@ -2249,7 +3047,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="21">
         <v>44704</v>
       </c>
@@ -2266,66 +3064,174 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="21">
         <v>44711</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="21">
         <v>44711</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="3:7">
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="21">
         <v>44711</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="3:7">
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="21">
         <v>44711</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="3:7">
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="21">
         <v>44711</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="21">
         <v>44711</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="21">
         <v>44711</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="21">
         <v>44711</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="21">
+        <v>44711</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="21">
+        <v>44711</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2334,15 +3240,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41382555-865A-47FE-BFBF-5024FFFE1BED}">
   <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>104</v>
       </c>
@@ -2355,7 +3264,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>81</v>
       </c>

--- a/Traking_winners/Winners_Tracking.xlsx
+++ b/Traking_winners/Winners_Tracking.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking_winners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{01AE283C-967B-4F0D-8C09-9398F61759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415B6EFB-DED0-4A84-9C5D-9BC27EE3F992}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{01AE283C-967B-4F0D-8C09-9398F61759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E238C1C-A68B-43EB-A4F8-964F5C6A8454}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Table Dynamique" sheetId="6" r:id="rId2"/>
-    <sheet name="History" sheetId="3" r:id="rId3"/>
-    <sheet name="Table Dynamique History" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId3"/>
+    <sheet name="History" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_HistoryC4F431" hidden="1">History!$C$4:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
   <si>
     <t>Project information</t>
   </si>
@@ -412,30 +413,6 @@
     <t>Aucun commit effectué</t>
   </si>
   <si>
-    <t>Somme - Workload</t>
-  </si>
-  <si>
-    <t>Données</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Total Résultat</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -533,6 +510,9 @@
   </si>
   <si>
     <t>0,2</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -638,114 +618,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -760,7 +638,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -782,20 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -827,6 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,8 +803,266 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44719.445686689818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="39" xr:uid="{7DD190C3-CF90-4427-BC48-1945732C3B19}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D4:F43" sheet="History"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Who" numFmtId="0">
+      <sharedItems count="6">
+        <s v="DFB"/>
+        <s v="DK"/>
+        <s v="OSM"/>
+        <s v="OSF"/>
+        <s v="MC"/>
+        <s v="BL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="What" numFmtId="0">
+      <sharedItems count="18">
+        <s v="IO"/>
+        <s v="IJ"/>
+        <s v="CP"/>
+        <s v="IT"/>
+        <s v="CC"/>
+        <s v="EDL1"/>
+        <s v="MPPM1"/>
+        <s v="MPPM2"/>
+        <s v="ABS"/>
+        <s v="APLP"/>
+        <s v="TU"/>
+        <s v="MPI"/>
+        <s v="ISB"/>
+        <s v="APM"/>
+        <s v="APFJ"/>
+        <s v="Id"/>
+        <s v="CT"/>
+        <s v="M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Workload" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1" count="7">
+        <n v="0.2"/>
+        <n v="1"/>
+        <n v="0.8"/>
+        <n v="0.5"/>
+        <s v="0.3"/>
+        <s v="0.2"/>
+        <s v="0.4"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="17"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{885DA155-6088-409F-B7F5-33A7F0375E15}" name="Tableau croisé dynamique2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{885DA155-6088-409F-B7F5-33A7F0375E15}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AR12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -1195,6 +1318,160 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94225B9F-BE49-4764-AA95-93BB56895B5F}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="8"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=";" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1499,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1516,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="22"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="22"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -1539,7 +1816,7 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
@@ -1550,7 +1827,7 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2"/>
@@ -1561,7 +1838,7 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>44690</v>
       </c>
       <c r="E6" s="2"/>
@@ -1572,7 +1849,7 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="15">
         <v>44736</v>
       </c>
       <c r="E7" s="2"/>
@@ -1583,7 +1860,7 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1596,7 +1873,7 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="14">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1609,7 +1886,7 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <f>D9*D22</f>
         <v>42</v>
       </c>
@@ -1619,14 +1896,14 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -1635,14 +1912,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -1651,7 +1928,7 @@
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2"/>
@@ -1662,7 +1939,7 @@
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2"/>
@@ -1673,7 +1950,7 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="2"/>
@@ -1684,7 +1961,7 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
@@ -1695,7 +1972,7 @@
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="2"/>
@@ -1706,7 +1983,7 @@
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="2"/>
@@ -1717,7 +1994,7 @@
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="2"/>
@@ -1728,7 +2005,7 @@
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="17">
         <v>6</v>
       </c>
       <c r="E22" s="2"/>
@@ -1737,7 +2014,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -1794,27 +2071,29 @@
         <v>38</v>
       </c>
       <c r="E30">
-        <f>0.2*D22</f>
-        <v>1.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30:F48" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
-        <v>1.2000000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H48" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="I30" s="29" t="str">
+        <v>-3</v>
+      </c>
+      <c r="I30" s="21">
         <f t="shared" ref="I30:I45" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E31">
@@ -1828,7 +2107,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I31" s="29" t="str">
+      <c r="I31" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1851,7 +2130,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I32" s="29" t="str">
+      <c r="I32" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1874,7 +2153,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I33" s="29" t="str">
+      <c r="I33" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1897,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I34" s="29" t="str">
+      <c r="I34" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1906,7 +2185,7 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="19" t="s">
         <v>48</v>
       </c>
       <c r="E35">
@@ -1920,7 +2199,7 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="I35" s="29" t="str">
+      <c r="I35" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1929,7 +2208,7 @@
       <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E36">
@@ -1943,7 +2222,7 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="I36" s="29" t="str">
+      <c r="I36" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1952,7 +2231,7 @@
       <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E37">
@@ -1966,7 +2245,7 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="I37" s="29" t="str">
+      <c r="I37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1975,7 +2254,7 @@
       <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="19" t="s">
         <v>54</v>
       </c>
       <c r="E38">
@@ -1989,7 +2268,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I38" s="29" t="str">
+      <c r="I38" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1998,7 +2277,7 @@
       <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E39">
@@ -2012,16 +2291,16 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="I39" s="29" t="str">
+      <c r="I39" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="19" t="s">
         <v>58</v>
       </c>
       <c r="E40">
@@ -2035,7 +2314,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I40" s="29" t="str">
+      <c r="I40" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2044,7 +2323,7 @@
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E41">
@@ -2058,7 +2337,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I41" s="29" t="str">
+      <c r="I41" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2067,7 +2346,7 @@
       <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E42">
@@ -2081,7 +2360,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I42" s="29" t="str">
+      <c r="I42" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2090,7 +2369,7 @@
       <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E43">
@@ -2104,7 +2383,7 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I43" s="29" t="str">
+      <c r="I43" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2113,7 +2392,7 @@
       <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E44">
@@ -2127,7 +2406,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I44" s="29" t="str">
+      <c r="I44" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2139,27 +2418,30 @@
       <c r="D45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H45" t="str">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I45" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="I45" s="21">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I46" s="29"/>
+        <v>110</v>
+      </c>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
@@ -2179,13 +2461,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I47" s="29"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="3:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E48">
@@ -2204,33 +2486,33 @@
       <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E52">
         <f>SUM(E30:E48)</f>
-        <v>8.3000000000000007</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF410C-7F2F-45AF-898B-1403CE31B136}">
   <dimension ref="A3:AR12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2295,8 +2577,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
-        <v>122</v>
+      <c r="B3" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
@@ -2304,224 +2586,224 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
         <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P4" t="s">
         <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R4" t="s">
         <v>13</v>
       </c>
       <c r="S4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="V4" t="s">
         <v>37</v>
       </c>
       <c r="X4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Y4" t="s">
         <v>55</v>
       </c>
       <c r="Z4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AA4" t="s">
         <v>41</v>
       </c>
       <c r="AE4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AG4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AH4" t="s">
         <v>75</v>
       </c>
       <c r="AI4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AJ4" t="s">
         <v>47</v>
       </c>
       <c r="AK4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="s">
         <v>49</v>
       </c>
       <c r="AO4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AP4" t="s">
         <v>73</v>
       </c>
       <c r="AQ4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AR4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
-        <v>120</v>
+      <c r="A5" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
         <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N5" t="s">
         <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="R5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="T5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="W5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Y5" t="s">
         <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AB5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AC5" t="s">
         <v>96</v>
       </c>
       <c r="AD5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AF5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AH5" t="s">
         <v>96</v>
       </c>
       <c r="AJ5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AL5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AM5" t="s">
         <v>99</v>
       </c>
       <c r="AN5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AP5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
-        <v>121</v>
+      <c r="A12" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2530,11 +2812,416 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A35C5-E8F5-4844-BAFE-513F82E94F7B}">
+  <dimension ref="A3:H23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
+        <v>3</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
+        <v>2</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="24">
+        <v>5</v>
+      </c>
+      <c r="C23" s="24">
+        <v>9</v>
+      </c>
+      <c r="D23" s="24">
+        <v>10</v>
+      </c>
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24">
+        <v>6</v>
+      </c>
+      <c r="G23" s="24">
+        <v>5</v>
+      </c>
+      <c r="H23" s="24">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
   <dimension ref="B2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F43"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2572,7 +3259,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="21">
+      <c r="C5" s="13">
         <v>44690</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2589,7 +3276,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="21">
+      <c r="C6" s="13">
         <v>44690</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2606,7 +3293,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="21">
+      <c r="C7" s="13">
         <v>44690</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2623,7 +3310,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="21">
+      <c r="C8" s="13">
         <v>44690</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2640,7 +3327,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="21">
+      <c r="C9" s="13">
         <v>44690</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2657,7 +3344,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="21">
+      <c r="C10" s="13">
         <v>44690</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2674,7 +3361,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="21">
+      <c r="C11" s="13">
         <v>44690</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2691,7 +3378,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="21">
+      <c r="C12" s="13">
         <v>44690</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2708,7 +3395,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="21">
+      <c r="C13" s="13">
         <v>44690</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2725,7 +3412,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C14" s="21">
+      <c r="C14" s="13">
         <v>44690</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2742,7 +3429,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C15" s="21">
+      <c r="C15" s="13">
         <v>44690</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2759,7 +3446,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="21">
+      <c r="C16" s="13">
         <v>44697</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2776,7 +3463,7 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="C17" s="21">
+      <c r="C17" s="13">
         <v>44697</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2788,12 +3475,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="21">
+      <c r="C18" s="13">
         <v>44697</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2810,7 +3497,7 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="21">
+      <c r="C19" s="13">
         <v>44697</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2827,7 +3514,7 @@
       </c>
     </row>
     <row r="20" spans="3:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="C20" s="21">
+      <c r="C20" s="13">
         <v>44697</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2839,12 +3526,12 @@
       <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="21">
+      <c r="C21" s="13">
         <v>44697</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2861,7 +3548,7 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="21">
+      <c r="C22" s="13">
         <v>44697</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2878,7 +3565,7 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="21">
+      <c r="C23" s="13">
         <v>44704</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2895,7 +3582,7 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="21">
+      <c r="C24" s="13">
         <v>44704</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2912,7 +3599,7 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="21">
+      <c r="C25" s="13">
         <v>44704</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2929,7 +3616,7 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="21">
+      <c r="C26" s="13">
         <v>44704</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2946,7 +3633,7 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="21">
+      <c r="C27" s="13">
         <v>44704</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2963,7 +3650,7 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="21">
+      <c r="C28" s="13">
         <v>44704</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2980,7 +3667,7 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="21">
+      <c r="C29" s="13">
         <v>44704</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2997,7 +3684,7 @@
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="21">
+      <c r="C30" s="13">
         <v>44704</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3014,7 +3701,7 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="21">
+      <c r="C31" s="13">
         <v>44704</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3031,7 +3718,7 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="21">
+      <c r="C32" s="13">
         <v>44704</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3048,7 +3735,7 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="21">
+      <c r="C33" s="13">
         <v>44704</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3065,7 +3752,7 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="21">
+      <c r="C34" s="13">
         <v>44711</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3078,11 +3765,11 @@
         <v>99</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="21">
+      <c r="C35" s="13">
         <v>44711</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3095,28 +3782,28 @@
         <v>96</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="21">
+      <c r="C36" s="13">
         <v>44711</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="21">
+      <c r="C37" s="13">
         <v>44711</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -3129,11 +3816,11 @@
         <v>96</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="21">
+      <c r="C38" s="13">
         <v>44711</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3146,28 +3833,28 @@
         <v>99</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="21">
+      <c r="C39" s="13">
         <v>44711</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="21">
+      <c r="C40" s="13">
         <v>44711</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3180,11 +3867,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="21">
+      <c r="C41" s="13">
         <v>44711</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3197,11 +3884,11 @@
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="21">
+      <c r="C42" s="13">
         <v>44711</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -3214,80 +3901,28 @@
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="21">
+      <c r="C43" s="13">
         <v>44711</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41382555-865A-47FE-BFBF-5024FFFE1BED}">
-  <dimension ref="B2:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>